--- a/experiments/evaluation/llm-based/albert-base-v2_15/rem-100_remove/rem3/incorrect_predictions.xlsx
+++ b/experiments/evaluation/llm-based/albert-base-v2_15/rem-100_remove/rem3/incorrect_predictions.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -512,7 +512,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
